--- a/gv_data.xlsx
+++ b/gv_data.xlsx
@@ -14,12 +14,15 @@
   <sheets>
     <sheet name="Tabelle1" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$N$514</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5412" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5417" uniqueCount="638">
   <si>
     <t>Vorhabenbezeichnung</t>
   </si>
@@ -1958,6 +1961,9 @@
   </si>
   <si>
     <t>Global</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
   </si>
 </sst>
 </file>
@@ -1965,7 +1971,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -2021,7 +2027,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2331,11 +2337,12 @@
   <dimension ref="A1:N514"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="7" max="7" width="30.5703125" customWidth="1"/>
     <col min="9" max="9" width="15.140625" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
   </cols>
@@ -2381,7 +2388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2425,7 +2432,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2469,7 +2476,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2513,7 +2520,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2557,7 +2564,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -2601,7 +2608,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -2645,7 +2652,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -2689,7 +2696,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>12</v>
       </c>
@@ -2733,7 +2740,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>13</v>
       </c>
@@ -2777,7 +2784,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>15</v>
       </c>
@@ -2821,7 +2828,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>16</v>
       </c>
@@ -2865,7 +2872,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>17</v>
       </c>
@@ -2909,7 +2916,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>18</v>
       </c>
@@ -2953,7 +2960,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>19</v>
       </c>
@@ -2997,7 +3004,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>21</v>
       </c>
@@ -3041,7 +3048,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>22</v>
       </c>
@@ -3085,7 +3092,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>24</v>
       </c>
@@ -3129,7 +3136,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>26</v>
       </c>
@@ -3170,7 +3177,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>28</v>
       </c>
@@ -3214,7 +3221,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>30</v>
       </c>
@@ -3258,7 +3265,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>38</v>
       </c>
@@ -3302,7 +3309,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>39</v>
       </c>
@@ -3346,7 +3353,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>40</v>
       </c>
@@ -3390,7 +3397,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>41</v>
       </c>
@@ -3434,7 +3441,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>42</v>
       </c>
@@ -3478,7 +3485,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>43</v>
       </c>
@@ -3522,7 +3529,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>46</v>
       </c>
@@ -3566,7 +3573,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>50</v>
       </c>
@@ -3610,7 +3617,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>51</v>
       </c>
@@ -3654,7 +3661,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>54</v>
       </c>
@@ -3698,7 +3705,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>57</v>
       </c>
@@ -3742,7 +3749,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>58</v>
       </c>
@@ -3786,7 +3793,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>59</v>
       </c>
@@ -3830,7 +3837,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>60</v>
       </c>
@@ -3874,7 +3881,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>61</v>
       </c>
@@ -3915,7 +3922,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>62</v>
       </c>
@@ -3959,7 +3966,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>63</v>
       </c>
@@ -4003,7 +4010,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>64</v>
       </c>
@@ -4047,7 +4054,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>66</v>
       </c>
@@ -4091,7 +4098,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>67</v>
       </c>
@@ -4135,7 +4142,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>69</v>
       </c>
@@ -4179,7 +4186,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>72</v>
       </c>
@@ -4223,7 +4230,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>74</v>
       </c>
@@ -4264,7 +4271,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>75</v>
       </c>
@@ -4305,7 +4312,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>76</v>
       </c>
@@ -4349,7 +4356,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -4393,7 +4400,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2</v>
       </c>
@@ -4437,7 +4444,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3</v>
       </c>
@@ -4481,7 +4488,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>4</v>
       </c>
@@ -4525,7 +4532,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>6</v>
       </c>
@@ -4569,7 +4576,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>7</v>
       </c>
@@ -4613,7 +4620,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>8</v>
       </c>
@@ -4657,7 +4664,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>12</v>
       </c>
@@ -4701,7 +4708,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>13</v>
       </c>
@@ -4745,7 +4752,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>15</v>
       </c>
@@ -4789,7 +4796,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>16</v>
       </c>
@@ -4833,7 +4840,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>17</v>
       </c>
@@ -4877,7 +4884,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>18</v>
       </c>
@@ -4921,7 +4928,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>19</v>
       </c>
@@ -4965,7 +4972,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>21</v>
       </c>
@@ -5009,7 +5016,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>22</v>
       </c>
@@ -5053,7 +5060,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>24</v>
       </c>
@@ -5097,7 +5104,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>26</v>
       </c>
@@ -5138,7 +5145,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>28</v>
       </c>
@@ -5182,7 +5189,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>30</v>
       </c>
@@ -5226,7 +5233,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>38</v>
       </c>
@@ -5270,7 +5277,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>39</v>
       </c>
@@ -5314,7 +5321,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>40</v>
       </c>
@@ -5355,7 +5362,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>41</v>
       </c>
@@ -5399,7 +5406,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>42</v>
       </c>
@@ -5443,7 +5450,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>43</v>
       </c>
@@ -5487,7 +5494,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>46</v>
       </c>
@@ -5531,7 +5538,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>50</v>
       </c>
@@ -5575,7 +5582,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>51</v>
       </c>
@@ -5619,7 +5626,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>54</v>
       </c>
@@ -5663,7 +5670,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>57</v>
       </c>
@@ -5707,7 +5714,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>58</v>
       </c>
@@ -5751,7 +5758,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>59</v>
       </c>
@@ -5795,7 +5802,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>60</v>
       </c>
@@ -5839,7 +5846,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>61</v>
       </c>
@@ -5883,7 +5890,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>62</v>
       </c>
@@ -5927,7 +5934,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>63</v>
       </c>
@@ -5971,7 +5978,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>64</v>
       </c>
@@ -6015,7 +6022,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>66</v>
       </c>
@@ -6059,7 +6066,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>67</v>
       </c>
@@ -6103,7 +6110,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>69</v>
       </c>
@@ -6147,7 +6154,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>72</v>
       </c>
@@ -6191,7 +6198,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>74</v>
       </c>
@@ -6235,7 +6242,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>75</v>
       </c>
@@ -6279,7 +6286,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>76</v>
       </c>
@@ -6323,7 +6330,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1</v>
       </c>
@@ -6367,7 +6374,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2</v>
       </c>
@@ -6411,7 +6418,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>3</v>
       </c>
@@ -6455,7 +6462,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>4</v>
       </c>
@@ -6499,7 +6506,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>6</v>
       </c>
@@ -6543,7 +6550,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>7</v>
       </c>
@@ -6587,7 +6594,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>8</v>
       </c>
@@ -6631,7 +6638,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>12</v>
       </c>
@@ -6675,7 +6682,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>13</v>
       </c>
@@ -6719,7 +6726,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>15</v>
       </c>
@@ -6763,7 +6770,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>16</v>
       </c>
@@ -6807,7 +6814,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>17</v>
       </c>
@@ -6851,7 +6858,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>18</v>
       </c>
@@ -6895,7 +6902,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>19</v>
       </c>
@@ -6939,7 +6946,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>21</v>
       </c>
@@ -6983,7 +6990,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>22</v>
       </c>
@@ -7027,7 +7034,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>26</v>
       </c>
@@ -7068,7 +7075,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>28</v>
       </c>
@@ -7112,7 +7119,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>38</v>
       </c>
@@ -7156,7 +7163,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>39</v>
       </c>
@@ -7200,7 +7207,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>40</v>
       </c>
@@ -7244,7 +7251,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>41</v>
       </c>
@@ -7288,7 +7295,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>42</v>
       </c>
@@ -7332,7 +7339,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>43</v>
       </c>
@@ -7376,7 +7383,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>46</v>
       </c>
@@ -7420,7 +7427,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>50</v>
       </c>
@@ -7464,7 +7471,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>51</v>
       </c>
@@ -7508,7 +7515,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>54</v>
       </c>
@@ -7552,7 +7559,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>57</v>
       </c>
@@ -7596,7 +7603,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>58</v>
       </c>
@@ -7640,7 +7647,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>59</v>
       </c>
@@ -7684,7 +7691,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>60</v>
       </c>
@@ -7728,7 +7735,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>61</v>
       </c>
@@ -7772,7 +7779,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>62</v>
       </c>
@@ -7816,7 +7823,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>63</v>
       </c>
@@ -7860,7 +7867,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>66</v>
       </c>
@@ -7901,7 +7908,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>67</v>
       </c>
@@ -7945,7 +7952,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>69</v>
       </c>
@@ -7989,7 +7996,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>72</v>
       </c>
@@ -8033,7 +8040,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>74</v>
       </c>
@@ -8077,7 +8084,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>75</v>
       </c>
@@ -8121,7 +8128,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>76</v>
       </c>
@@ -8165,7 +8172,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1</v>
       </c>
@@ -8209,7 +8216,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2</v>
       </c>
@@ -8253,7 +8260,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>3</v>
       </c>
@@ -8297,7 +8304,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>4</v>
       </c>
@@ -8341,7 +8348,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>6</v>
       </c>
@@ -8385,7 +8392,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>7</v>
       </c>
@@ -8429,7 +8436,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>8</v>
       </c>
@@ -8473,7 +8480,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>12</v>
       </c>
@@ -8517,7 +8524,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>13</v>
       </c>
@@ -8561,7 +8568,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>15</v>
       </c>
@@ -8605,7 +8612,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>16</v>
       </c>
@@ -8649,7 +8656,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>17</v>
       </c>
@@ -8693,7 +8700,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>18</v>
       </c>
@@ -8737,7 +8744,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>21</v>
       </c>
@@ -8781,7 +8788,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>22</v>
       </c>
@@ -8825,7 +8832,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>26</v>
       </c>
@@ -8866,7 +8873,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>28</v>
       </c>
@@ -8910,7 +8917,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>38</v>
       </c>
@@ -8954,7 +8961,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>39</v>
       </c>
@@ -8998,7 +9005,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>40</v>
       </c>
@@ -9042,7 +9049,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>41</v>
       </c>
@@ -9086,7 +9093,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>42</v>
       </c>
@@ -9130,7 +9137,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>43</v>
       </c>
@@ -9174,7 +9181,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>46</v>
       </c>
@@ -9218,7 +9225,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>50</v>
       </c>
@@ -9262,7 +9269,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>51</v>
       </c>
@@ -9306,7 +9313,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>57</v>
       </c>
@@ -9350,7 +9357,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>58</v>
       </c>
@@ -9394,7 +9401,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>59</v>
       </c>
@@ -9438,7 +9445,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>60</v>
       </c>
@@ -9482,7 +9489,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>61</v>
       </c>
@@ -9526,7 +9533,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>62</v>
       </c>
@@ -9570,7 +9577,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>63</v>
       </c>
@@ -9614,7 +9621,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>66</v>
       </c>
@@ -9658,7 +9665,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>67</v>
       </c>
@@ -9702,7 +9709,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>69</v>
       </c>
@@ -9746,7 +9753,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>72</v>
       </c>
@@ -9790,7 +9797,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>74</v>
       </c>
@@ -9834,7 +9841,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>75</v>
       </c>
@@ -9878,7 +9885,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>76</v>
       </c>
@@ -9922,7 +9929,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1</v>
       </c>
@@ -9966,7 +9973,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>2</v>
       </c>
@@ -10010,7 +10017,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>3</v>
       </c>
@@ -10054,7 +10061,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>6</v>
       </c>
@@ -10098,7 +10105,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>7</v>
       </c>
@@ -10142,7 +10149,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>12</v>
       </c>
@@ -10186,7 +10193,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>13</v>
       </c>
@@ -10230,7 +10237,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>15</v>
       </c>
@@ -10274,7 +10281,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>16</v>
       </c>
@@ -10318,7 +10325,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>18</v>
       </c>
@@ -10362,7 +10369,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>21</v>
       </c>
@@ -10406,7 +10413,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>22</v>
       </c>
@@ -10450,7 +10457,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>26</v>
       </c>
@@ -10491,7 +10498,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>38</v>
       </c>
@@ -10535,7 +10542,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>39</v>
       </c>
@@ -10579,7 +10586,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>40</v>
       </c>
@@ -10623,7 +10630,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>41</v>
       </c>
@@ -10667,7 +10674,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>42</v>
       </c>
@@ -10711,7 +10718,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>46</v>
       </c>
@@ -10755,7 +10762,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>50</v>
       </c>
@@ -10799,7 +10806,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>51</v>
       </c>
@@ -10843,7 +10850,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>57</v>
       </c>
@@ -10887,7 +10894,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>58</v>
       </c>
@@ -10931,7 +10938,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>59</v>
       </c>
@@ -10975,7 +10982,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>60</v>
       </c>
@@ -11019,7 +11026,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>61</v>
       </c>
@@ -11063,7 +11070,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>63</v>
       </c>
@@ -11107,7 +11114,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>66</v>
       </c>
@@ -11151,7 +11158,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>67</v>
       </c>
@@ -11195,7 +11202,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>69</v>
       </c>
@@ -11239,7 +11246,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>72</v>
       </c>
@@ -11283,7 +11290,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>74</v>
       </c>
@@ -11327,7 +11334,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>75</v>
       </c>
@@ -11371,7 +11378,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>76</v>
       </c>
@@ -11415,7 +11422,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>1</v>
       </c>
@@ -11459,7 +11466,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>2</v>
       </c>
@@ -11503,7 +11510,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>3</v>
       </c>
@@ -11547,7 +11554,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>6</v>
       </c>
@@ -11591,7 +11598,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>13</v>
       </c>
@@ -11635,7 +11642,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>15</v>
       </c>
@@ -11679,7 +11686,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>16</v>
       </c>
@@ -11723,7 +11730,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>18</v>
       </c>
@@ -11767,7 +11774,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>21</v>
       </c>
@@ -11811,7 +11818,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>22</v>
       </c>
@@ -11855,7 +11862,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>26</v>
       </c>
@@ -11896,7 +11903,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>38</v>
       </c>
@@ -11940,7 +11947,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>39</v>
       </c>
@@ -11984,7 +11991,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>40</v>
       </c>
@@ -12028,7 +12035,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>41</v>
       </c>
@@ -12072,7 +12079,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>42</v>
       </c>
@@ -12116,7 +12123,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>46</v>
       </c>
@@ -12160,7 +12167,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>50</v>
       </c>
@@ -12204,7 +12211,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>51</v>
       </c>
@@ -12248,7 +12255,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>57</v>
       </c>
@@ -12292,7 +12299,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>58</v>
       </c>
@@ -12336,7 +12343,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>59</v>
       </c>
@@ -12380,7 +12387,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>60</v>
       </c>
@@ -12424,7 +12431,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>61</v>
       </c>
@@ -12468,7 +12475,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>63</v>
       </c>
@@ -12512,7 +12519,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>66</v>
       </c>
@@ -12556,7 +12563,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>67</v>
       </c>
@@ -12600,7 +12607,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>69</v>
       </c>
@@ -12644,7 +12651,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>74</v>
       </c>
@@ -12688,7 +12695,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>75</v>
       </c>
@@ -12732,7 +12739,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>76</v>
       </c>
@@ -12776,7 +12783,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1</v>
       </c>
@@ -12820,7 +12827,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>2</v>
       </c>
@@ -12864,7 +12871,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>3</v>
       </c>
@@ -12908,7 +12915,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>6</v>
       </c>
@@ -12952,7 +12959,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>15</v>
       </c>
@@ -12996,7 +13003,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>16</v>
       </c>
@@ -13040,7 +13047,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>18</v>
       </c>
@@ -13084,7 +13091,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>21</v>
       </c>
@@ -13128,7 +13135,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>22</v>
       </c>
@@ -13172,7 +13179,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>26</v>
       </c>
@@ -13213,7 +13220,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>38</v>
       </c>
@@ -13257,7 +13264,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>39</v>
       </c>
@@ -13301,7 +13308,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>40</v>
       </c>
@@ -13345,7 +13352,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>41</v>
       </c>
@@ -13389,7 +13396,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>46</v>
       </c>
@@ -13433,7 +13440,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>51</v>
       </c>
@@ -13477,7 +13484,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>57</v>
       </c>
@@ -13521,7 +13528,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>58</v>
       </c>
@@ -13565,7 +13572,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>59</v>
       </c>
@@ -13609,7 +13616,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>60</v>
       </c>
@@ -13653,7 +13660,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>61</v>
       </c>
@@ -13697,7 +13704,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>63</v>
       </c>
@@ -13741,7 +13748,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>66</v>
       </c>
@@ -13785,7 +13792,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>67</v>
       </c>
@@ -13829,7 +13836,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>69</v>
       </c>
@@ -13873,7 +13880,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>74</v>
       </c>
@@ -13917,7 +13924,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>76</v>
       </c>
@@ -13961,7 +13968,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>1</v>
       </c>
@@ -14005,7 +14012,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>2</v>
       </c>
@@ -14049,7 +14056,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>3</v>
       </c>
@@ -14093,7 +14100,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>6</v>
       </c>
@@ -14137,7 +14144,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>15</v>
       </c>
@@ -14181,7 +14188,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>16</v>
       </c>
@@ -14225,7 +14232,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>18</v>
       </c>
@@ -14269,7 +14276,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>21</v>
       </c>
@@ -14313,7 +14320,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>26</v>
       </c>
@@ -14354,7 +14361,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>38</v>
       </c>
@@ -14398,7 +14405,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>39</v>
       </c>
@@ -14442,7 +14449,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>40</v>
       </c>
@@ -14486,7 +14493,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>41</v>
       </c>
@@ -14530,7 +14537,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>46</v>
       </c>
@@ -14574,7 +14581,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>51</v>
       </c>
@@ -14618,7 +14625,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>57</v>
       </c>
@@ -14662,7 +14669,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>58</v>
       </c>
@@ -14706,7 +14713,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>59</v>
       </c>
@@ -14750,7 +14757,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>60</v>
       </c>
@@ -14794,7 +14801,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>61</v>
       </c>
@@ -14838,7 +14845,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>63</v>
       </c>
@@ -14882,7 +14889,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>66</v>
       </c>
@@ -14926,7 +14933,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>67</v>
       </c>
@@ -14970,7 +14977,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>69</v>
       </c>
@@ -15014,7 +15021,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>74</v>
       </c>
@@ -15058,7 +15065,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>76</v>
       </c>
@@ -15102,7 +15109,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>1</v>
       </c>
@@ -15146,7 +15153,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>2</v>
       </c>
@@ -15190,7 +15197,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>3</v>
       </c>
@@ -15234,7 +15241,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>6</v>
       </c>
@@ -15278,7 +15285,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>15</v>
       </c>
@@ -15322,7 +15329,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>16</v>
       </c>
@@ -15366,7 +15373,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>18</v>
       </c>
@@ -15410,7 +15417,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>21</v>
       </c>
@@ -15454,7 +15461,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>26</v>
       </c>
@@ -15495,7 +15502,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>38</v>
       </c>
@@ -15539,7 +15546,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>39</v>
       </c>
@@ -15583,7 +15590,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>40</v>
       </c>
@@ -15627,7 +15634,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>41</v>
       </c>
@@ -15671,7 +15678,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>46</v>
       </c>
@@ -15715,7 +15722,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>51</v>
       </c>
@@ -15759,7 +15766,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>57</v>
       </c>
@@ -15803,7 +15810,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>58</v>
       </c>
@@ -15847,7 +15854,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>59</v>
       </c>
@@ -15891,7 +15898,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>60</v>
       </c>
@@ -15935,7 +15942,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>61</v>
       </c>
@@ -15979,7 +15986,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>67</v>
       </c>
@@ -16023,7 +16030,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>69</v>
       </c>
@@ -16067,7 +16074,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>74</v>
       </c>
@@ -16111,7 +16118,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>76</v>
       </c>
@@ -16155,7 +16162,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>1</v>
       </c>
@@ -16199,7 +16206,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>2</v>
       </c>
@@ -16243,7 +16250,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>3</v>
       </c>
@@ -16287,7 +16294,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>6</v>
       </c>
@@ -16331,7 +16338,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>15</v>
       </c>
@@ -16375,7 +16382,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>16</v>
       </c>
@@ -16419,7 +16426,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>18</v>
       </c>
@@ -16463,7 +16470,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>21</v>
       </c>
@@ -16507,7 +16514,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>26</v>
       </c>
@@ -16548,7 +16555,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>38</v>
       </c>
@@ -16592,7 +16599,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>40</v>
       </c>
@@ -16636,13 +16643,16 @@
         <v>321</v>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>46</v>
       </c>
       <c r="B327" t="s">
         <v>611</v>
       </c>
+      <c r="C327" t="s">
+        <v>637</v>
+      </c>
       <c r="D327" t="s">
         <v>345</v>
       </c>
@@ -16677,7 +16687,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>51</v>
       </c>
@@ -16721,7 +16731,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>57</v>
       </c>
@@ -16765,7 +16775,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>58</v>
       </c>
@@ -16809,7 +16819,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>59</v>
       </c>
@@ -16853,7 +16863,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>60</v>
       </c>
@@ -16897,7 +16907,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>61</v>
       </c>
@@ -16941,7 +16951,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>67</v>
       </c>
@@ -16985,7 +16995,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>69</v>
       </c>
@@ -17029,7 +17039,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>74</v>
       </c>
@@ -17073,7 +17083,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>76</v>
       </c>
@@ -17117,7 +17127,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>1</v>
       </c>
@@ -17161,7 +17171,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>2</v>
       </c>
@@ -17205,7 +17215,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>3</v>
       </c>
@@ -17249,7 +17259,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>6</v>
       </c>
@@ -17293,7 +17303,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>16</v>
       </c>
@@ -17337,7 +17347,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>18</v>
       </c>
@@ -17381,7 +17391,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>21</v>
       </c>
@@ -17425,7 +17435,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>26</v>
       </c>
@@ -17466,7 +17476,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>38</v>
       </c>
@@ -17510,7 +17520,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>46</v>
       </c>
@@ -17554,7 +17564,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>51</v>
       </c>
@@ -17598,7 +17608,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>57</v>
       </c>
@@ -17642,7 +17652,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>58</v>
       </c>
@@ -17686,7 +17696,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>59</v>
       </c>
@@ -17730,7 +17740,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>60</v>
       </c>
@@ -17774,7 +17784,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>61</v>
       </c>
@@ -17818,7 +17828,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>67</v>
       </c>
@@ -17862,7 +17872,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>69</v>
       </c>
@@ -17906,7 +17916,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>74</v>
       </c>
@@ -17950,7 +17960,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>76</v>
       </c>
@@ -17994,7 +18004,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>1</v>
       </c>
@@ -18038,7 +18048,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>2</v>
       </c>
@@ -18082,7 +18092,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>3</v>
       </c>
@@ -18126,7 +18136,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>6</v>
       </c>
@@ -18170,7 +18180,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>18</v>
       </c>
@@ -18214,7 +18224,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>21</v>
       </c>
@@ -18258,7 +18268,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>26</v>
       </c>
@@ -18299,7 +18309,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>38</v>
       </c>
@@ -18343,7 +18353,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>46</v>
       </c>
@@ -18387,7 +18397,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>51</v>
       </c>
@@ -18431,7 +18441,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>57</v>
       </c>
@@ -18475,7 +18485,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>58</v>
       </c>
@@ -18519,7 +18529,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>59</v>
       </c>
@@ -18563,7 +18573,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>61</v>
       </c>
@@ -18607,7 +18617,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>67</v>
       </c>
@@ -18651,7 +18661,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>69</v>
       </c>
@@ -18695,7 +18705,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>74</v>
       </c>
@@ -18739,7 +18749,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>76</v>
       </c>
@@ -18783,7 +18793,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>1</v>
       </c>
@@ -18827,7 +18837,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>2</v>
       </c>
@@ -18871,7 +18881,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>3</v>
       </c>
@@ -18915,7 +18925,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>6</v>
       </c>
@@ -18959,7 +18969,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>18</v>
       </c>
@@ -19003,7 +19013,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>21</v>
       </c>
@@ -19047,7 +19057,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>26</v>
       </c>
@@ -19088,7 +19098,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>57</v>
       </c>
@@ -19132,7 +19142,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>59</v>
       </c>
@@ -19176,7 +19186,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>61</v>
       </c>
@@ -19220,7 +19230,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>67</v>
       </c>
@@ -19264,7 +19274,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>69</v>
       </c>
@@ -19308,7 +19318,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>74</v>
       </c>
@@ -19352,7 +19362,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>76</v>
       </c>
@@ -19396,7 +19406,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>1</v>
       </c>
@@ -19440,7 +19450,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>2</v>
       </c>
@@ -19484,7 +19494,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>6</v>
       </c>
@@ -19528,7 +19538,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>18</v>
       </c>
@@ -19572,7 +19582,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>21</v>
       </c>
@@ -19616,7 +19626,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>26</v>
       </c>
@@ -19657,7 +19667,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>57</v>
       </c>
@@ -19701,7 +19711,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>59</v>
       </c>
@@ -19745,7 +19755,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>61</v>
       </c>
@@ -19789,7 +19799,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>67</v>
       </c>
@@ -19833,7 +19843,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>69</v>
       </c>
@@ -19877,7 +19887,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>74</v>
       </c>
@@ -19921,7 +19931,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>76</v>
       </c>
@@ -19965,7 +19975,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>1</v>
       </c>
@@ -20009,7 +20019,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="404" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>2</v>
       </c>
@@ -20053,7 +20063,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="405" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>18</v>
       </c>
@@ -20097,7 +20107,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>21</v>
       </c>
@@ -20141,7 +20151,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>26</v>
       </c>
@@ -20182,7 +20192,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>57</v>
       </c>
@@ -20226,7 +20236,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>59</v>
       </c>
@@ -20270,7 +20280,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>61</v>
       </c>
@@ -20314,7 +20324,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="411" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>67</v>
       </c>
@@ -20358,7 +20368,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>69</v>
       </c>
@@ -20402,7 +20412,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>74</v>
       </c>
@@ -20446,7 +20456,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>76</v>
       </c>
@@ -20490,7 +20500,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="415" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>1</v>
       </c>
@@ -20534,7 +20544,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>2</v>
       </c>
@@ -20578,7 +20588,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="417" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>18</v>
       </c>
@@ -20622,7 +20632,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="418" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>21</v>
       </c>
@@ -20666,7 +20676,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="419" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>26</v>
       </c>
@@ -20707,7 +20717,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="420" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>57</v>
       </c>
@@ -20751,7 +20761,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="421" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>61</v>
       </c>
@@ -20795,7 +20805,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>67</v>
       </c>
@@ -20839,7 +20849,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="423" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>69</v>
       </c>
@@ -20883,7 +20893,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>74</v>
       </c>
@@ -20927,7 +20937,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="425" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>76</v>
       </c>
@@ -20971,7 +20981,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="426" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>1</v>
       </c>
@@ -21015,7 +21025,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="427" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>2</v>
       </c>
@@ -21059,7 +21069,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="428" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>18</v>
       </c>
@@ -21103,7 +21113,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="429" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>26</v>
       </c>
@@ -21144,7 +21154,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>57</v>
       </c>
@@ -21188,7 +21198,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="431" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>67</v>
       </c>
@@ -21232,7 +21242,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="432" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>69</v>
       </c>
@@ -21276,7 +21286,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="433" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>74</v>
       </c>
@@ -21320,13 +21330,16 @@
         <v>474</v>
       </c>
     </row>
-    <row r="434" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>76</v>
       </c>
       <c r="B434" t="s">
         <v>611</v>
       </c>
+      <c r="C434" t="s">
+        <v>637</v>
+      </c>
       <c r="D434" t="s">
         <v>484</v>
       </c>
@@ -21361,7 +21374,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="435" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>1</v>
       </c>
@@ -21405,7 +21418,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="436" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>2</v>
       </c>
@@ -21449,7 +21462,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="437" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>18</v>
       </c>
@@ -21493,7 +21506,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="438" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>26</v>
       </c>
@@ -21534,7 +21547,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="439" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>57</v>
       </c>
@@ -21578,7 +21591,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="440" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>67</v>
       </c>
@@ -21622,7 +21635,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="441" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>69</v>
       </c>
@@ -21666,7 +21679,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="442" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>74</v>
       </c>
@@ -21710,7 +21723,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="443" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>76</v>
       </c>
@@ -21754,7 +21767,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="444" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>1</v>
       </c>
@@ -21798,7 +21811,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="445" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>2</v>
       </c>
@@ -21842,7 +21855,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="446" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>18</v>
       </c>
@@ -21886,7 +21899,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="447" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>26</v>
       </c>
@@ -21927,7 +21940,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="448" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>57</v>
       </c>
@@ -21971,7 +21984,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="449" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>67</v>
       </c>
@@ -22015,7 +22028,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="450" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>69</v>
       </c>
@@ -22059,7 +22072,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="451" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>74</v>
       </c>
@@ -22103,7 +22116,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="452" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>1</v>
       </c>
@@ -22147,7 +22160,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>26</v>
       </c>
@@ -22188,7 +22201,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="454" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>57</v>
       </c>
@@ -22232,7 +22245,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="455" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>67</v>
       </c>
@@ -22276,13 +22289,16 @@
         <v>450</v>
       </c>
     </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>69</v>
       </c>
       <c r="B456" t="s">
         <v>611</v>
       </c>
+      <c r="C456" t="s">
+        <v>637</v>
+      </c>
       <c r="D456" t="s">
         <v>451</v>
       </c>
@@ -22317,13 +22333,16 @@
         <v>457</v>
       </c>
     </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>74</v>
       </c>
       <c r="B457" t="s">
         <v>611</v>
       </c>
+      <c r="C457" t="s">
+        <v>637</v>
+      </c>
       <c r="D457" s="3" t="s">
         <v>468</v>
       </c>
@@ -22358,7 +22377,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>1</v>
       </c>
@@ -22402,7 +22421,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="459" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>26</v>
       </c>
@@ -22443,7 +22462,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="460" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>57</v>
       </c>
@@ -22487,7 +22506,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="461" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>67</v>
       </c>
@@ -22531,7 +22550,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="462" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>69</v>
       </c>
@@ -22575,7 +22594,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="463" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>74</v>
       </c>
@@ -22619,7 +22638,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="464" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>1</v>
       </c>
@@ -22663,7 +22682,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="465" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>26</v>
       </c>
@@ -22704,7 +22723,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="466" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>57</v>
       </c>
@@ -22748,7 +22767,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="467" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>67</v>
       </c>
@@ -22792,7 +22811,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="468" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>69</v>
       </c>
@@ -22836,7 +22855,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="469" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>74</v>
       </c>
@@ -22880,7 +22899,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="470" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>1</v>
       </c>
@@ -22924,7 +22943,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="471" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>67</v>
       </c>
@@ -22968,7 +22987,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="472" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>1</v>
       </c>
@@ -23012,7 +23031,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="473" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>67</v>
       </c>
@@ -23056,7 +23075,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="474" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>1</v>
       </c>
@@ -23100,13 +23119,16 @@
         <v>140</v>
       </c>
     </row>
-    <row r="475" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>67</v>
       </c>
       <c r="B475" t="s">
         <v>611</v>
       </c>
+      <c r="C475" t="s">
+        <v>637</v>
+      </c>
       <c r="D475" s="3" t="s">
         <v>443</v>
       </c>
@@ -23141,7 +23163,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="476" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>1</v>
       </c>
@@ -23185,7 +23207,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="477" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>67</v>
       </c>
@@ -23229,7 +23251,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="478" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>1</v>
       </c>
@@ -23273,7 +23295,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="479" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>67</v>
       </c>
@@ -23317,7 +23339,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="480" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>1</v>
       </c>
@@ -24648,6 +24670,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N514"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/gv_data.xlsx
+++ b/gv_data.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Tabelle1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$N$514</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$N$516</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5417" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5435" uniqueCount="639">
   <si>
     <t>Vorhabenbezeichnung</t>
   </si>
@@ -1964,6 +1964,9 @@
   </si>
   <si>
     <t>Kosovo</t>
+  </si>
+  <si>
+    <t>Columbia, Ghana, Vietnam</t>
   </si>
 </sst>
 </file>
@@ -2334,10 +2337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N514"/>
+  <dimension ref="A1:N516"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A483" workbookViewId="0">
+      <selection activeCell="F516" sqref="F516"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2564,7 +2567,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="375" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -3177,7 +3180,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="255" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>28</v>
       </c>
@@ -3221,7 +3224,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="165" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>30</v>
       </c>
@@ -3881,7 +3884,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="330" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>61</v>
       </c>
@@ -4271,7 +4274,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="180" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>75</v>
       </c>
@@ -4312,7 +4315,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="195" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>76</v>
       </c>
@@ -4532,7 +4535,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="375" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>6</v>
       </c>
@@ -5145,7 +5148,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" ht="255" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>28</v>
       </c>
@@ -5189,7 +5192,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" ht="165" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>30</v>
       </c>
@@ -5846,7 +5849,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" ht="330" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>61</v>
       </c>
@@ -6242,7 +6245,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" ht="180" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>75</v>
       </c>
@@ -6286,7 +6289,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" ht="195" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>76</v>
       </c>
@@ -6506,7 +6509,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" ht="375" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>6</v>
       </c>
@@ -7075,7 +7078,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="109" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" ht="255" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>28</v>
       </c>
@@ -7735,7 +7738,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="124" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" ht="330" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>61</v>
       </c>
@@ -8084,7 +8087,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="132" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" ht="180" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>75</v>
       </c>
@@ -8128,7 +8131,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="133" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" ht="195" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>76</v>
       </c>
@@ -8348,7 +8351,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="138" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" ht="375" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>6</v>
       </c>
@@ -8873,7 +8876,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="150" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" ht="255" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>28</v>
       </c>
@@ -9489,7 +9492,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="164" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" ht="330" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>61</v>
       </c>
@@ -9841,7 +9844,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="172" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" ht="180" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>75</v>
       </c>
@@ -9885,7 +9888,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="173" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" ht="195" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>76</v>
       </c>
@@ -10061,7 +10064,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="177" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" ht="375" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>6</v>
       </c>
@@ -11026,7 +11029,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="199" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" ht="330" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>61</v>
       </c>
@@ -11334,7 +11337,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="206" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:14" ht="180" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>75</v>
       </c>
@@ -11378,7 +11381,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="207" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:14" ht="195" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>76</v>
       </c>
@@ -11554,7 +11557,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="211" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:14" ht="375" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>6</v>
       </c>
@@ -12431,7 +12434,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="231" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:14" ht="330" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>61</v>
       </c>
@@ -12695,7 +12698,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="237" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:14" ht="180" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>75</v>
       </c>
@@ -12739,7 +12742,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="238" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:14" ht="195" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>76</v>
       </c>
@@ -12915,7 +12918,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="242" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:14" ht="375" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>6</v>
       </c>
@@ -13660,7 +13663,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="259" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:14" ht="330" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>61</v>
       </c>
@@ -13924,7 +13927,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="265" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:14" ht="195" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>76</v>
       </c>
@@ -14100,7 +14103,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="269" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:14" ht="375" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>6</v>
       </c>
@@ -14801,7 +14804,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="285" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:14" ht="330" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>61</v>
       </c>
@@ -15065,7 +15068,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="291" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:14" ht="195" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>76</v>
       </c>
@@ -15241,7 +15244,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="295" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:14" ht="375" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>6</v>
       </c>
@@ -15942,7 +15945,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="311" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:14" ht="330" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>61</v>
       </c>
@@ -16118,7 +16121,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="315" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:14" ht="195" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>76</v>
       </c>
@@ -16294,7 +16297,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="319" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:14" ht="375" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>6</v>
       </c>
@@ -16907,7 +16910,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="333" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:14" ht="330" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>61</v>
       </c>
@@ -17083,7 +17086,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="337" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:14" ht="195" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>76</v>
       </c>
@@ -17259,7 +17262,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="341" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:14" ht="375" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>6</v>
       </c>
@@ -17784,7 +17787,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="353" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:14" ht="330" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>61</v>
       </c>
@@ -17960,7 +17963,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="357" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:14" ht="195" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>76</v>
       </c>
@@ -18136,7 +18139,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="361" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:14" ht="375" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>6</v>
       </c>
@@ -18573,7 +18576,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="371" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:14" ht="330" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>61</v>
       </c>
@@ -18749,7 +18752,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="375" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:14" ht="195" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>76</v>
       </c>
@@ -18925,7 +18928,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="379" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:14" ht="375" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>6</v>
       </c>
@@ -19186,7 +19189,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="385" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:14" ht="330" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>61</v>
       </c>
@@ -19362,7 +19365,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="389" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:14" ht="195" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>76</v>
       </c>
@@ -19494,7 +19497,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="392" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:14" ht="375" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>6</v>
       </c>
@@ -19755,7 +19758,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="398" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:14" ht="330" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>61</v>
       </c>
@@ -19931,7 +19934,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="402" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:14" ht="195" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>76</v>
       </c>
@@ -20280,7 +20283,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="410" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:14" ht="330" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>61</v>
       </c>
@@ -20456,7 +20459,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="414" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:14" ht="195" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>76</v>
       </c>
@@ -20761,7 +20764,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="421" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:14" ht="330" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>61</v>
       </c>
@@ -20937,7 +20940,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="425" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:14" ht="195" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>76</v>
       </c>
@@ -21330,7 +21333,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="434" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:14" ht="195" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>76</v>
       </c>
@@ -21723,7 +21726,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="443" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:14" ht="195" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>76</v>
       </c>
@@ -24255,6 +24258,12 @@
       <c r="A504" s="1">
         <v>52</v>
       </c>
+      <c r="B504" t="s">
+        <v>501</v>
+      </c>
+      <c r="C504" t="s">
+        <v>502</v>
+      </c>
       <c r="D504" t="s">
         <v>84</v>
       </c>
@@ -24286,118 +24295,130 @@
         <v>6500000</v>
       </c>
       <c r="N504" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="505" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="B505" t="s">
+        <v>240</v>
+      </c>
+      <c r="C505" t="s">
+        <v>241</v>
       </c>
       <c r="D505" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E505" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F505" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G505" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H505" t="s">
         <v>10</v>
       </c>
       <c r="I505" s="2">
-        <v>43642</v>
+        <v>44743</v>
       </c>
       <c r="J505" s="2">
-        <v>46112</v>
+        <v>45473</v>
       </c>
       <c r="K505">
-        <v>8000000</v>
+        <v>7000000</v>
       </c>
       <c r="L505">
-        <v>542189.99</v>
+        <v>1048144.79</v>
       </c>
       <c r="M505">
-        <v>12000000</v>
+        <v>6500000</v>
       </c>
       <c r="N505" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="506" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
-        <v>55</v>
+        <v>52</v>
+      </c>
+      <c r="B506" t="s">
+        <v>507</v>
+      </c>
+      <c r="C506" t="s">
+        <v>508</v>
       </c>
       <c r="D506" t="s">
-        <v>91</v>
-      </c>
-      <c r="E506">
-        <v>420</v>
+        <v>84</v>
+      </c>
+      <c r="E506" t="s">
+        <v>83</v>
       </c>
       <c r="F506" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G506" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H506" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="I506" s="2">
-        <v>41640</v>
+        <v>44743</v>
       </c>
       <c r="J506" s="2">
-        <v>44926</v>
+        <v>45473</v>
       </c>
       <c r="K506">
-        <v>18389574.100000001</v>
+        <v>7000000</v>
       </c>
       <c r="L506">
-        <v>18389574.100000001</v>
+        <v>1048144.79</v>
       </c>
       <c r="M506">
-        <v>0</v>
+        <v>6500000</v>
       </c>
       <c r="N506" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="507" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D507" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E507" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F507" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G507" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H507" t="s">
         <v>10</v>
       </c>
       <c r="I507" s="2">
-        <v>44112</v>
+        <v>43642</v>
       </c>
       <c r="J507" s="2">
-        <v>45657</v>
+        <v>46112</v>
       </c>
       <c r="K507">
-        <v>14300000</v>
+        <v>8000000</v>
       </c>
       <c r="L507">
-        <v>5183470.3899999997</v>
+        <v>542189.99</v>
       </c>
       <c r="M507">
-        <v>1500000</v>
+        <v>12000000</v>
       </c>
       <c r="N507" t="s">
         <v>636</v>
@@ -24405,34 +24426,34 @@
     </row>
     <row r="508" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D508" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E508">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F508" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G508" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="H508" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="I508" s="2">
-        <v>44927</v>
+        <v>41640</v>
       </c>
       <c r="J508" s="2">
-        <v>46022</v>
+        <v>44926</v>
       </c>
       <c r="K508">
-        <v>9000000</v>
+        <v>18389574.100000001</v>
       </c>
       <c r="L508">
-        <v>0</v>
+        <v>18389574.100000001</v>
       </c>
       <c r="M508">
         <v>0</v>
@@ -24443,37 +24464,37 @@
     </row>
     <row r="509" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D509" t="s">
-        <v>102</v>
-      </c>
-      <c r="E509">
-        <v>500</v>
+        <v>96</v>
+      </c>
+      <c r="E509" t="s">
+        <v>95</v>
       </c>
       <c r="F509" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G509" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H509" t="s">
         <v>10</v>
       </c>
       <c r="I509" s="2">
-        <v>43956</v>
+        <v>44112</v>
       </c>
       <c r="J509" s="2">
-        <v>45138</v>
+        <v>45657</v>
       </c>
       <c r="K509">
-        <v>182148000</v>
+        <v>14300000</v>
       </c>
       <c r="L509">
-        <v>118773088.98999999</v>
+        <v>5183470.3899999997</v>
       </c>
       <c r="M509">
-        <v>48000000</v>
+        <v>1500000</v>
       </c>
       <c r="N509" t="s">
         <v>636</v>
@@ -24481,37 +24502,37 @@
     </row>
     <row r="510" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D510" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E510">
-        <v>500</v>
+        <v>424</v>
       </c>
       <c r="F510" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G510" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H510" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="I510" s="2">
-        <v>43040</v>
+        <v>44927</v>
       </c>
       <c r="J510" s="2">
-        <v>45046</v>
+        <v>46022</v>
       </c>
       <c r="K510">
-        <v>11600000</v>
+        <v>9000000</v>
       </c>
       <c r="L510">
-        <v>8791351.3599999994</v>
+        <v>0</v>
       </c>
       <c r="M510">
-        <v>8000000</v>
+        <v>0</v>
       </c>
       <c r="N510" t="s">
         <v>636</v>
@@ -24519,37 +24540,37 @@
     </row>
     <row r="511" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D511" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E511">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F511" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G511" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H511" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="I511" s="2">
-        <v>43405</v>
+        <v>43956</v>
       </c>
       <c r="J511" s="2">
-        <v>45747</v>
+        <v>45138</v>
       </c>
       <c r="K511">
-        <v>127800000</v>
+        <v>182148000</v>
       </c>
       <c r="L511">
-        <v>95060162.129999995</v>
+        <v>118773088.98999999</v>
       </c>
       <c r="M511">
-        <v>9700000</v>
+        <v>48000000</v>
       </c>
       <c r="N511" t="s">
         <v>636</v>
@@ -24557,37 +24578,37 @@
     </row>
     <row r="512" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D512" t="s">
-        <v>113</v>
-      </c>
-      <c r="E512" t="s">
-        <v>112</v>
+        <v>105</v>
+      </c>
+      <c r="E512">
+        <v>500</v>
       </c>
       <c r="F512" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="G512" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H512" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="I512" s="2">
-        <v>44776</v>
+        <v>43040</v>
       </c>
       <c r="J512" s="2">
-        <v>45869</v>
+        <v>45046</v>
       </c>
       <c r="K512">
-        <v>4000000</v>
+        <v>11600000</v>
       </c>
       <c r="L512">
-        <v>837906</v>
+        <v>8791351.3599999994</v>
       </c>
       <c r="M512">
-        <v>0</v>
+        <v>8000000</v>
       </c>
       <c r="N512" t="s">
         <v>636</v>
@@ -24595,37 +24616,37 @@
     </row>
     <row r="513" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D513" t="s">
-        <v>117</v>
-      </c>
-      <c r="E513" t="s">
-        <v>116</v>
+        <v>109</v>
+      </c>
+      <c r="E513">
+        <v>501</v>
       </c>
       <c r="F513" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="G513" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="H513" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="I513" s="2">
-        <v>44805</v>
+        <v>43405</v>
       </c>
       <c r="J513" s="2">
-        <v>45900</v>
+        <v>45747</v>
       </c>
       <c r="K513">
-        <v>4000000</v>
+        <v>127800000</v>
       </c>
       <c r="L513">
-        <v>402546.4</v>
+        <v>95060162.129999995</v>
       </c>
       <c r="M513">
-        <v>0</v>
+        <v>9700000</v>
       </c>
       <c r="N513" t="s">
         <v>636</v>
@@ -24633,34 +24654,34 @@
     </row>
     <row r="514" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D514" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E514" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F514" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G514" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="H514" t="s">
         <v>10</v>
       </c>
       <c r="I514" s="2">
-        <v>44287</v>
+        <v>44776</v>
       </c>
       <c r="J514" s="2">
-        <v>47543</v>
+        <v>45869</v>
       </c>
       <c r="K514">
-        <v>5000000</v>
+        <v>4000000</v>
       </c>
       <c r="L514">
-        <v>608504.01</v>
+        <v>837906</v>
       </c>
       <c r="M514">
         <v>0</v>
@@ -24669,8 +24690,84 @@
         <v>636</v>
       </c>
     </row>
+    <row r="515" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A515" s="1">
+        <v>77</v>
+      </c>
+      <c r="D515" t="s">
+        <v>117</v>
+      </c>
+      <c r="E515" t="s">
+        <v>116</v>
+      </c>
+      <c r="F515" t="s">
+        <v>118</v>
+      </c>
+      <c r="G515" t="s">
+        <v>119</v>
+      </c>
+      <c r="H515" t="s">
+        <v>10</v>
+      </c>
+      <c r="I515" s="2">
+        <v>44805</v>
+      </c>
+      <c r="J515" s="2">
+        <v>45900</v>
+      </c>
+      <c r="K515">
+        <v>4000000</v>
+      </c>
+      <c r="L515">
+        <v>402546.4</v>
+      </c>
+      <c r="M515">
+        <v>0</v>
+      </c>
+      <c r="N515" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="516" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A516" s="1">
+        <v>78</v>
+      </c>
+      <c r="D516" t="s">
+        <v>121</v>
+      </c>
+      <c r="E516" t="s">
+        <v>120</v>
+      </c>
+      <c r="F516" t="s">
+        <v>122</v>
+      </c>
+      <c r="G516" t="s">
+        <v>123</v>
+      </c>
+      <c r="H516" t="s">
+        <v>10</v>
+      </c>
+      <c r="I516" s="2">
+        <v>44287</v>
+      </c>
+      <c r="J516" s="2">
+        <v>47543</v>
+      </c>
+      <c r="K516">
+        <v>5000000</v>
+      </c>
+      <c r="L516">
+        <v>608504.01</v>
+      </c>
+      <c r="M516">
+        <v>0</v>
+      </c>
+      <c r="N516" t="s">
+        <v>636</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:N514"/>
+  <autoFilter ref="A1:N516"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>